--- a/admin/padt-functions.xlsx
+++ b/admin/padt-functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RW\EAISI-Pythia\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B4C1F7-03C5-49ED-8433-8B46F380FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8446C0D6-07CB-4B1B-BC4A-E42813AB5E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="-110" windowWidth="37430" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="191029" concurrentManualCount="8"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="149">
   <si>
     <t>OBJ</t>
   </si>
@@ -150,9 +149,6 @@
     <t>purpose</t>
   </si>
   <si>
-    <t>config_ext</t>
-  </si>
-  <si>
     <t>sap_ext.R</t>
   </si>
   <si>
@@ -435,27 +431,15 @@
     <t>executes: .su_padt_initialize</t>
   </si>
   <si>
-    <t>.dd_matl_scope_get</t>
-  </si>
-  <si>
-    <t>.dd_matl_scope_cte_get</t>
-  </si>
-  <si>
     <t>duck-db_int.R</t>
   </si>
   <si>
     <t>.dd_duckdb_close_conn</t>
   </si>
   <si>
-    <t>.dd_duckdb_get_parts</t>
-  </si>
-  <si>
     <t>.dd_duckdb_open_conn</t>
   </si>
   <si>
-    <t>.dd_where_clause_get</t>
-  </si>
-  <si>
     <t>.hl_convert_type</t>
   </si>
   <si>
@@ -468,9 +452,6 @@
     <t>pa_td_ipm_get</t>
   </si>
   <si>
-    <t>pa_td_rtp_get</t>
-  </si>
-  <si>
     <t>Retrieve Material Master Data</t>
   </si>
   <si>
@@ -480,7 +461,28 @@
     <t>Retrieve DYN Sales Data from Dynasys</t>
   </si>
   <si>
-    <t>Retrieve RTP Sales Data from SAP BW to Dynasys Cloud</t>
+    <t>.da_duckdb_components_get</t>
+  </si>
+  <si>
+    <t>.da_matl_scope_cte_get</t>
+  </si>
+  <si>
+    <t>.da_matl_scope_get</t>
+  </si>
+  <si>
+    <t>.da_where_clause_get</t>
+  </si>
+  <si>
+    <t>pa_td_sap_get</t>
+  </si>
+  <si>
+    <t>Retrieve RTP/IPM Sales Data from SAP BW for Dynasys</t>
+  </si>
+  <si>
+    <t>config_ext.R</t>
+  </si>
+  <si>
+    <t>setup_ext.R</t>
   </si>
 </sst>
 </file>
@@ -511,7 +513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +524,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -561,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,11 +577,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,7 +624,27 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:I95" totalsRowShown="0">
-  <autoFilter ref="A1:I95" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <autoFilter ref="A1:I95" xr:uid="{00000000-0009-0000-0100-000003000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="I"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="__"/>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:I95">
+    <sortCondition ref="C24:C95"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="7" xr3:uid="{66B1B072-806F-4BB2-959F-AA2457BDFBD7}" name="SEQ"/>
     <tableColumn id="8" xr3:uid="{AFAA6FB4-CACC-48DD-8F08-27830C4E9978}" name="MOD"/>
@@ -913,7 +944,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -931,10 +962,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -949,7 +980,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
         <v>36</v>
@@ -958,7 +989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -966,7 +997,7 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -982,7 +1013,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -990,7 +1021,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1006,7 +1037,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1030,7 +1061,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1054,7 +1085,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1078,7 +1109,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1086,7 +1117,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1102,7 +1133,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1110,7 +1141,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -1126,102 +1157,93 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <v>1</v>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
       </c>
       <c r="I9" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.onAttach</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>131</v>
+        <v>.__DEVTOOLS__</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
       </c>
       <c r="I10" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.onLoad</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>.__global__</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="7" t="b">
+      <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I11" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
         <v>pa_config_value_get</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="7" t="b">
+      <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I12" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
         <v>pa_config_value_set</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1229,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -1245,89 +1267,77 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>67</v>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
       </c>
       <c r="I14" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.su_data_folders_create</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
+        <v>.__NAMESPACE__.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
       </c>
       <c r="I15" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.su_package_folder_copy</v>
+        <v>.__S3MethodsTable__.</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="b">
+        <v>51</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.su_padt_initialize</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>.da_duckdb_components_get</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="7" t="b">
+      <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="G17"/>
@@ -1336,15 +1346,15 @@
         <v>pa_ask_user_transform_files</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1358,15 +1368,15 @@
         <v>pa_transform</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1380,15 +1390,15 @@
         <v>pa_transformations_get</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1400,7 +1410,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" t="e">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
@@ -1408,35 +1418,29 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2</v>
-      </c>
       <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="b">
+        <v>51</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.di_csv_to_parquet_transform</v>
+        <v>.da_matl_scope_cte_get</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2</v>
-      </c>
       <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -1446,18 +1450,18 @@
       </c>
       <c r="I22" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.di_fields_generic_get</v>
+        <v>.da_matl_scope_get</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -1467,18 +1471,15 @@
       </c>
       <c r="I23" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.di_fields_in_get</v>
+        <v>.da_sql_sales_get</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2</v>
-      </c>
       <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -1488,39 +1489,36 @@
       </c>
       <c r="I24" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.di_fields_out_get</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2</v>
-      </c>
+        <v>.da_where_clause_get</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.di_transformation_rules_get</v>
+        <v>.datatable.aware</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -1530,18 +1528,18 @@
       </c>
       <c r="I26" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.di_where_clause_get</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>.dd_duckdb_close_conn</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -1551,22 +1549,22 @@
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I27" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
         <v>pa_md_mat_get</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -1576,22 +1574,22 @@
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I28" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
         <v>pa_td_dyn_get</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>142</v>
+        <v>52</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -1599,24 +1597,27 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" t="str">
-        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>pa_td_ipm_get</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I29" t="e">
+        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>143</v>
+        <v>52</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -1626,22 +1627,22 @@
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I30" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>pa_td_rtp_get</v>
+        <v>pa_td_sap_get</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1651,23 +1652,23 @@
       </c>
       <c r="I31" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.da_sql_sales_get</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>.dd_duckdb_open_conn</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="7" t="b">
+      <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="G32"/>
@@ -1678,13 +1679,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -1694,18 +1695,18 @@
       </c>
       <c r="I33" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.dd_duckdb_close_conn</v>
+        <v>.di_csv_to_parquet_transform</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" t="s">
-        <v>136</v>
+        <v>47</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -1715,18 +1716,18 @@
       </c>
       <c r="I34" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.dd_duckdb_get_parts</v>
+        <v>.di_fields_generic_get</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -1736,15 +1737,15 @@
       </c>
       <c r="I35" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.dd_duckdb_open_conn</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>.di_fields_in_get</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
@@ -1761,12 +1762,12 @@
         <v>pa_matn1_input</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
@@ -1783,7 +1784,7 @@
         <v>pa_matn1_output</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>34</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>34</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>34</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>34</v>
       </c>
@@ -1868,194 +1869,221 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2</v>
+      </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.PACKAGE_NAME</v>
+        <v>.di_fields_out_get</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2</v>
+      </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>CM_MAX</v>
+        <v>.di_transformation_rules_get</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2</v>
+      </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>CM_MIN</v>
+        <v>.di_where_clause_get</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>117</v>
       </c>
       <c r="I45" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>LAGG_MAX</v>
+        <v>.fh_create_dataset_folders</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="7" t="b">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>125</v>
       </c>
       <c r="I46" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>LAGG_MIN</v>
+        <v>.fh_dataset_field_get</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>118</v>
       </c>
       <c r="I47" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>SCOPE_PRDH</v>
+        <v>.fh_dataset_paths_get</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>108</v>
       </c>
       <c r="I48" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>SCOPE_SORG</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+        <v>.fh_datasets_list_get</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>123</v>
       </c>
       <c r="I49" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>STEP_MAX</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+        <v>.fh_environment_value_get</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>119</v>
       </c>
       <c r="I50" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>STEP_MIN</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+        <v>.fh_files_metadata_list_get</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="7" t="b">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>118</v>
-      </c>
-      <c r="I51" s="5" t="str">
-        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.fh_create_dataset_folders</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="I51" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
+        <v>.fh_files_sync_list_get</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -2071,12 +2099,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -2092,12 +2120,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -2109,61 +2137,61 @@
         <v>33</v>
       </c>
       <c r="H54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I54" t="e">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" t="b">
+        <v>50</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>126</v>
-      </c>
-      <c r="I55" s="5" t="str">
-        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.fh_dataset_field_get</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="I55" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
+        <v>.fh_onedrive_abs</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="7" t="b">
+        <v>50</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>119</v>
-      </c>
-      <c r="I56" s="5" t="str">
-        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.fh_dataset_paths_get</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="I56" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
+        <v>.fh_onedrive_rel</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -2175,40 +2203,40 @@
         <v>33</v>
       </c>
       <c r="H57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I57" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
         <v>.fh_datasets_list_get</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="7" t="b">
+        <v>50</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I58" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.fh_datasets_list_get</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+        <v>.fh_staging_value_get</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -2219,140 +2247,134 @@
       <c r="F59" t="s">
         <v>33</v>
       </c>
-      <c r="I59" s="5" t="e">
+      <c r="I59" t="e">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
       <c r="B60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="7" t="b">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>124</v>
-      </c>
-      <c r="I60" s="5" t="str">
-        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.fh_environment_value_get</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="I60" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
+        <v>.hl_config_get</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>120</v>
-      </c>
-      <c r="I61" s="5" t="str">
-        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.fh_files_metadata_list_get</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
+        <v>.hl_convert_type</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>0</v>
+      </c>
       <c r="B62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>121</v>
-      </c>
-      <c r="I62" s="5" t="str">
-        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.fh_files_sync_list_get</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
+        <v>.onAttach</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>0</v>
+      </c>
       <c r="B63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="4" t="b">
+        <v>80</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="I63" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.fh_onedrive_abs</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+        <v>.onLoad</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E64" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="I64" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.fh_onedrive_rel</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>51</v>
-      </c>
+        <v>.PACKAGE_NAME</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="C65" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>123</v>
-      </c>
-      <c r="I65" s="5" t="str">
-        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.fh_staging_value_get</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I65" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
+        <v>.packageName</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>16</v>
@@ -2371,9 +2393,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>18</v>
@@ -2392,12 +2414,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>23</v>
@@ -2411,30 +2433,30 @@
         <v>pa_parquet_head</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B69" t="s">
-        <v>134</v>
-      </c>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="C69" s="3" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.dd_matl_scope_cte_get</v>
+        <v>.padt_env</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1</v>
+      </c>
       <c r="B70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>132</v>
+        <v>35</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -2442,17 +2464,23 @@
       <c r="E70" t="b">
         <v>1</v>
       </c>
+      <c r="H70" t="s">
+        <v>127</v>
+      </c>
       <c r="I70" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.dd_matl_scope_get</v>
+        <v>.su_data_folders_create</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1</v>
+      </c>
       <c r="B71" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" t="s">
-        <v>138</v>
+        <v>35</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -2460,49 +2488,49 @@
       <c r="E71" t="b">
         <v>1</v>
       </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
       <c r="I71" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.dd_where_clause_get</v>
+        <v>.su_package_folder_copy</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>129</v>
+      <c r="A72">
+        <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>104</v>
+        <v>35</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I72" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.hl_config_get</v>
+        <v>.su_padt_initialize</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="7" t="b">
+      <c r="C73" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="I73" t="str">
@@ -2510,12 +2538,12 @@
         <v>.verbose</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -2525,15 +2553,15 @@
       </c>
       <c r="I74" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.datatable.aware</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+        <v>CM_MAX</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -2550,12 +2578,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -2566,20 +2594,20 @@
       <c r="F76" t="s">
         <v>33</v>
       </c>
-      <c r="H76" s="8" t="s">
-        <v>127</v>
+      <c r="H76" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="I76" t="e">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -2595,9 +2623,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -2605,17 +2636,14 @@
       <c r="E78" t="b">
         <v>0</v>
       </c>
-      <c r="F78" t="s">
-        <v>95</v>
-      </c>
       <c r="I78" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.__DEVTOOLS__</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+        <v>CM_MIN</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -2623,17 +2651,14 @@
       <c r="E79" t="b">
         <v>0</v>
       </c>
-      <c r="F79" t="s">
-        <v>95</v>
-      </c>
       <c r="I79" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.__global__</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+        <v>CONFIG_FLDR</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -2641,17 +2666,14 @@
       <c r="E80" t="b">
         <v>0</v>
       </c>
-      <c r="F80" t="s">
-        <v>95</v>
-      </c>
       <c r="I80" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.__NAMESPACE__.</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CONFIG_YAML</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -2659,17 +2681,14 @@
       <c r="E81" t="b">
         <v>0</v>
       </c>
-      <c r="F81" t="s">
-        <v>95</v>
-      </c>
       <c r="I81" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.__S3MethodsTable__.</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+        <v>fn_TRFN_MOD</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="C82" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>4</v>
@@ -2685,9 +2704,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -2703,9 +2722,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -2715,12 +2734,15 @@
       </c>
       <c r="I84" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.packageName</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+        <v>fn_TRFN_ORG</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
@@ -2730,12 +2752,15 @@
       </c>
       <c r="I85" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.padt_env</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+        <v>LAGG_MAX</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -2745,12 +2770,12 @@
       </c>
       <c r="I86" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>CONFIG_FLDR</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+        <v>LAGG_MIN</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -2760,12 +2785,15 @@
       </c>
       <c r="I87" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>CONFIG_YAML</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+        <v>PADEMO_FLDR</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -2775,32 +2803,38 @@
       </c>
       <c r="I88" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>fn_TRFN_MOD</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+        <v>SCOPE_PRDH</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
       <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
+        <v>SCOPE_SORG</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" t="s">
         <v>92</v>
       </c>
-      <c r="D89" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="str">
-        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>fn_TRFN_ORG</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C90" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" t="s">
         <v>23</v>
       </c>
-      <c r="E90" s="7" t="b">
+      <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="I90" t="str">
@@ -2808,24 +2842,30 @@
         <v>pa_config_level_values_get</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C91" s="6" t="s">
+    <row r="91" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
+        <v>pa_folder_open</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91" t="str">
-        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>pa_folder_open</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C92" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>23</v>
@@ -2838,9 +2878,12 @@
         <v>pa_parquet_describe</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>148</v>
+      </c>
       <c r="C93" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>23</v>
@@ -2853,9 +2896,12 @@
         <v>pa_su_config_reset</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
       <c r="C94" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -2865,25 +2911,25 @@
       </c>
       <c r="I94" t="str">
         <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>PADEMO_FLDR</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+        <v>STEP_MAX</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" s="5" t="str">
-        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
-        <v>.hl_convert_type</v>
+        <v>0</v>
+      </c>
+      <c r="I95" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[OBJ]],[1]!Table3[OBJ],1,0)</f>
+        <v>STEP_MIN</v>
       </c>
     </row>
   </sheetData>
